--- a/server/report.xlsx
+++ b/server/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>OS_Type</t>
   </si>
@@ -67,148 +67,172 @@
     <t>ACKTime</t>
   </si>
   <si>
-    <t>Song Dong Nai</t>
-  </si>
-  <si>
-    <t>Tram 1</t>
+    <t>KCN Bien Hoa</t>
+  </si>
+  <si>
+    <t>Tram 2</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperature is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:25:12 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:29:32 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:29:50 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>pH is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:30:02 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Nito</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>Nito is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:30:29 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>TOC is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:30:44 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Temperature is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:31:26 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>NH4+</t>
+  </si>
+  <si>
+    <t>NH4+ is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:37:06 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>NH4+ is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:37:17 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:38:00 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Nito is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:38:03 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:38:18 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Photpho+</t>
+  </si>
+  <si>
+    <t>Photpho+ is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:40:49 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:41:07 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Photpho+ is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:41:17 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:41:25 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:41:38 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:43:15 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COD is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:44:06 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:44:14 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:44:26 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t>TSS</t>
   </si>
   <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>TSS is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:25:12 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:29:50 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total N</t>
-  </si>
-  <si>
-    <t>Total N is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:30:30 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>TOC</t>
-  </si>
-  <si>
-    <t>TOC is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:30:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
     <t>TSS is out of LOW limit</t>
   </si>
   <si>
-    <t>Sat May 28 2022 17:31:27 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NH4+</t>
-  </si>
-  <si>
-    <t>NH4+ is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:37:06 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NH4+ is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:37:17 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:38:00 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total N is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:38:04 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:38:19 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:41:08 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>PO4+</t>
-  </si>
-  <si>
-    <t>PO4+ is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:07 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>PO4+ is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:22 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total P</t>
-  </si>
-  <si>
-    <t>Total P is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:25 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total P is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:26 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:45:48 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:45:59 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:46:40 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:46:58 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:47:04 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:48:18 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:50:34 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>TSS is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:51:24 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NO3-</t>
-  </si>
-  <si>
-    <t>NO3- is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:54:04 GMT+0700 (Indochina Time)</t>
+    <t>Sat May 28 2022 17:45:46 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:47:11 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:47:19 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:48:08 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>COD is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:48:29 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:49:39 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Temperature is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 17:51:23 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t>Sat May 28 2022 17:54:53 GMT+0700 (Indochina Time)</t>
@@ -217,88 +241,73 @@
     <t>Sat May 28 2022 17:55:24 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
-    <t>NO3- is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:55:27 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:55:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:56:14 GMT+0700 (Indochina Time)</t>
+    <t>Sat May 28 2022 17:55:43 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t>Sat May 28 2022 17:56:40 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
-    <t>Sat May 28 2022 17:56:57 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:57:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 18:32:30 GMT+0700 (Indochina Time)</t>
+    <t>Sat May 28 2022 17:56:56 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 18:04:53 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 18:33:38 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 18:33:43 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 18:34:02 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 18:34:07 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t>Sat May 28 2022 18:35:10 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
-    <t>Sat May 28 2022 18:36:46 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>COD is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:10 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>Temperature is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:19 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:25 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:35 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total N is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:52 GMT+0700 (Indochina Time)</t>
+    <t>Sat May 28 2022 18:36:45 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Pt-Co</t>
+  </si>
+  <si>
+    <t>Color is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 19:08:55 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 19:10:34 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Nito is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 19:10:43 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 19:10:50 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 19:10:51 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 19:11:08 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
     <t>Sat May 28 2022 19:11:27 GMT+0700 (Indochina Time)</t>
   </si>
   <si>
-    <t>Sat May 28 2022 19:14:40 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Temperature is out of HIGHHIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:14:54 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>TSS is out of HIGHHIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:15:06 GMT+0700 (Indochina Time)</t>
+    <t>Sat May 28 2022 19:14:30 GMT+0700 (Indochina Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 01:29:08 GMT+0700 (Indochina Time)</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -402,7 +411,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>18</v>
@@ -414,7 +423,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>36.98</v>
+        <v>31.98</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -426,16 +435,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>3</v>
@@ -455,7 +464,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -464,40 +473,40 @@
         <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>36.75</v>
+        <v>5.52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>108006</v>
+        <v>90003</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>24</v>
@@ -508,7 +517,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
@@ -517,10 +526,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>27.73</v>
+        <v>31.75</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>21</v>
@@ -529,28 +538,28 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="M5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>74005</v>
+        <v>108005</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>24</v>
@@ -561,7 +570,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
@@ -570,40 +579,40 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>129.68</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="O6" s="0" t="n">
-        <v>161509</v>
+        <v>29002</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>24</v>
@@ -614,7 +623,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
@@ -623,40 +632,40 @@
         <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>24.84</v>
+        <v>27.73</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>44003</v>
+        <v>74003</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>24</v>
@@ -667,7 +676,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
@@ -676,40 +685,40 @@
         <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>69.86</v>
+        <v>129.68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>544032</v>
+        <v>161509</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>24</v>
@@ -720,7 +729,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
@@ -729,40 +738,40 @@
         <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>73.01</v>
+        <v>19.84</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>10501</v>
+        <v>44002</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>24</v>
@@ -773,7 +782,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>18</v>
@@ -782,19 +791,19 @@
         <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>69.74</v>
+        <v>69.86</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>70</v>
@@ -812,10 +821,10 @@
         <v>3</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>42502</v>
+        <v>544030</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>24</v>
@@ -826,49 +835,49 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>73.01</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="N11" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>70504</v>
+        <v>10501</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>24</v>
@@ -879,7 +888,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
@@ -888,19 +897,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>73.01</v>
+        <v>69.74</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>70</v>
@@ -918,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>18001</v>
+        <v>42502</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>24</v>
@@ -932,7 +941,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>18</v>
@@ -941,40 +950,40 @@
         <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>69.84</v>
+        <v>14.89</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="K13" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>168510</v>
+        <v>70505</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>24</v>
@@ -985,7 +994,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -994,40 +1003,40 @@
         <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>58.09</v>
+        <v>73.01</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>964559</v>
+        <v>18001</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>24</v>
@@ -1038,7 +1047,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>18</v>
@@ -1047,40 +1056,40 @@
         <v>19</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>60.14</v>
+        <v>7.22</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>14500</v>
+        <v>767045</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>24</v>
@@ -1091,49 +1100,49 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>983059</v>
+        <v>168510</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>24</v>
@@ -1144,7 +1153,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>18</v>
@@ -1156,22 +1165,22 @@
         <v>49</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10.01</v>
+        <v>4.7</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>10</v>
@@ -1180,13 +1189,13 @@
         <v>20</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>500</v>
+        <v>27501</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>24</v>
@@ -1197,7 +1206,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
@@ -1206,40 +1215,40 @@
         <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>7.92</v>
+        <v>5.52</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="M18" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>9500</v>
+        <v>683041</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>24</v>
@@ -1250,7 +1259,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>18</v>
@@ -1259,40 +1268,40 @@
         <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>63.22</v>
+        <v>7.05</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>96505</v>
+        <v>21001</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>24</v>
@@ -1303,7 +1312,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>18</v>
@@ -1315,22 +1324,22 @@
         <v>49</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>9.12</v>
+        <v>4.77</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>10</v>
@@ -1339,13 +1348,13 @@
         <v>20</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>51004</v>
+        <v>96505</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>24</v>
@@ -1356,7 +1365,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>18</v>
@@ -1365,19 +1374,19 @@
         <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>63.42</v>
+        <v>58.09</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>55</v>
@@ -1386,7 +1395,7 @@
         <v>95</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>85</v>
@@ -1395,10 +1404,10 @@
         <v>3</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>29502</v>
+        <v>964556</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>24</v>
@@ -1409,7 +1418,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>18</v>
@@ -1421,22 +1430,22 @@
         <v>49</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>7.93</v>
+        <v>7.05</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>10</v>
@@ -1445,13 +1454,13 @@
         <v>20</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>24001</v>
+        <v>58504</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>24</v>
@@ -1462,7 +1471,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>18</v>
@@ -1471,40 +1480,40 @@
         <v>19</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>63.08</v>
+        <v>10.01</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>57003</v>
+        <v>11000</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>24</v>
@@ -1515,7 +1524,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>18</v>
@@ -1524,40 +1533,40 @@
         <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>63.14</v>
+        <v>159.91</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>41002</v>
+        <v>518031</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>24</v>
@@ -1568,7 +1577,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>18</v>
@@ -1577,40 +1586,40 @@
         <v>19</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>28.36</v>
+        <v>4.8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>1196573</v>
+        <v>93006</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>24</v>
@@ -1621,7 +1630,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>18</v>
@@ -1630,40 +1639,40 @@
         <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>149.77</v>
+        <v>7.26</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>979561</v>
+        <v>7000</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>24</v>
@@ -1674,7 +1683,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>18</v>
@@ -1683,40 +1692,40 @@
         <v>19</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>24.93</v>
+        <v>4.91</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>209013</v>
+        <v>49003</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>24</v>
@@ -1727,7 +1736,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>18</v>
@@ -1736,19 +1745,19 @@
         <v>19</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>54.79</v>
+        <v>65.09</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>55</v>
@@ -1757,7 +1766,7 @@
         <v>95</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>85</v>
@@ -1766,10 +1775,10 @@
         <v>3</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>117007</v>
+        <v>262517</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>24</v>
@@ -1780,7 +1789,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>18</v>
@@ -1789,40 +1798,40 @@
         <v>19</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>155.02</v>
+        <v>4.99</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>82504</v>
+        <v>493030</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>24</v>
@@ -1833,7 +1842,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>18</v>
@@ -1845,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>28.06</v>
+        <v>23.36</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>21</v>
@@ -1854,28 +1863,28 @@
         <v>2</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>50003</v>
+        <v>1196573</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>24</v>
@@ -1886,7 +1895,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>18</v>
@@ -1895,10 +1904,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>149.91</v>
+        <v>19.93</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>21</v>
@@ -1907,28 +1916,28 @@
         <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>46505</v>
+        <v>209012</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>24</v>
@@ -1939,7 +1948,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>18</v>
@@ -1948,40 +1957,40 @@
         <v>19</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>24.89</v>
+        <v>54.79</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>56003</v>
+        <v>413025</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>24</v>
@@ -1992,7 +2001,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>18</v>
@@ -2004,7 +2013,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>28.37</v>
+        <v>23.06</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>21</v>
@@ -2013,28 +2022,28 @@
         <v>2</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>16001</v>
+        <v>50003</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>24</v>
@@ -2045,7 +2054,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>18</v>
@@ -2054,40 +2063,40 @@
         <v>19</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>155.27</v>
+        <v>19.89</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>89504</v>
+        <v>56004</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>24</v>
@@ -2098,7 +2107,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>18</v>
@@ -2107,40 +2116,40 @@
         <v>19</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>149.98</v>
+        <v>23.37</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>1000</v>
+        <v>16001</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>24</v>
@@ -2151,7 +2160,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>18</v>
@@ -2160,40 +2169,40 @@
         <v>19</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>28.2</v>
+        <v>4.82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>161510</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>24</v>
@@ -2204,7 +2213,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>18</v>
@@ -2213,40 +2222,40 @@
         <v>19</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>24.73</v>
+        <v>7.04</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>95006</v>
+        <v>69503</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>24</v>
@@ -2257,7 +2266,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>18</v>
@@ -2266,40 +2275,40 @@
         <v>19</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>50.07</v>
+        <v>4.91</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>74504</v>
+        <v>5001</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>24</v>
@@ -2310,7 +2319,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>18</v>
@@ -2319,40 +2328,40 @@
         <v>19</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>21.96</v>
+        <v>7.25</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="O39" s="0" t="n">
-        <v>78005</v>
+        <v>18001</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>24</v>
@@ -2363,7 +2372,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>18</v>
@@ -2375,22 +2384,22 @@
         <v>49</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>7.65</v>
+        <v>4.83</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>10</v>
@@ -2399,13 +2408,13 @@
         <v>20</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>3503</v>
+        <v>4501</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>24</v>
@@ -2416,7 +2425,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>18</v>
@@ -2425,40 +2434,40 @@
         <v>19</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>14.69</v>
+        <v>23.2</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L41" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="M41" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>90507</v>
+        <v>161509</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>24</v>
@@ -2469,7 +2478,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>18</v>
@@ -2478,40 +2487,40 @@
         <v>19</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>17.36</v>
+        <v>19.73</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L42" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K42" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="M42" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>8500</v>
+        <v>95010</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>24</v>
@@ -2522,7 +2531,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>18</v>
@@ -2531,40 +2540,40 @@
         <v>19</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>14.52</v>
+        <v>15.15</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="K43" s="0" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>7500</v>
+        <v>15497</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>24</v>
@@ -2575,7 +2584,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>18</v>
@@ -2584,40 +2593,40 @@
         <v>19</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>45.22</v>
+        <v>14.69</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L44" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="M44" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>90</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>86005</v>
+        <v>90505</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>24</v>
@@ -2628,7 +2637,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>18</v>
@@ -2637,40 +2646,40 @@
         <v>19</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>30.48</v>
+        <v>17.36</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J45" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="M45" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>9999</v>
+        <v>8501</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>24</v>
@@ -2681,7 +2690,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>18</v>
@@ -2690,40 +2699,40 @@
         <v>19</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>26.95</v>
+        <v>4.85</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="I46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L46" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>13998</v>
+        <v>29002</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>24</v>
@@ -2734,54 +2743,266 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>18001</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="M49" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>36501</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R47" s="0" t="n">
+      <c r="N49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>86005</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>15.15</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>15502</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R51" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/server/report.xlsx
+++ b/server/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>OS_Type</t>
   </si>
@@ -67,238 +67,244 @@
     <t>ACKTime</t>
   </si>
   <si>
-    <t>Song Dong Nai</t>
-  </si>
-  <si>
-    <t>Tram 1</t>
+    <t>KCN Bien Hoa</t>
+  </si>
+  <si>
+    <t>Tram 2</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperature is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:25:12 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:29:32 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:29:50 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>pH is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:30:02 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Nito</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>Nito is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:30:29 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>TOC is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:30:44 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Temperature is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:31:26 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NH4+</t>
+  </si>
+  <si>
+    <t>NH4+ is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:37:06 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NH4+ is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:37:17 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:38:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Nito is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:38:03 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:38:18 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Photpho+</t>
+  </si>
+  <si>
+    <t>Photpho+ is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:40:49 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:41:07 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Photpho+ is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:41:17 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:41:25 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:41:38 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:43:15 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COD is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:44:06 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:44:14 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:44:26 GMT+0000 (Coordinated Universal Time)</t>
   </si>
   <si>
     <t>TSS</t>
   </si>
   <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>TSS is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:25:12 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:29:50 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total N</t>
-  </si>
-  <si>
-    <t>Total N is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:30:30 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>TOC</t>
-  </si>
-  <si>
-    <t>TOC is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:30:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
     <t>TSS is out of LOW limit</t>
   </si>
   <si>
-    <t>Sat May 28 2022 17:31:27 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NH4+</t>
-  </si>
-  <si>
-    <t>NH4+ is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:37:06 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NH4+ is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:37:17 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:38:00 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total N is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:38:04 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:38:19 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:41:08 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>PO4+</t>
-  </si>
-  <si>
-    <t>PO4+ is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:07 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>PO4+ is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:22 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total P</t>
-  </si>
-  <si>
-    <t>Total P is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:25 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total P is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:44:26 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:45:48 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:45:59 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:46:40 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:46:58 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:47:04 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:48:18 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:50:34 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>TSS is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:51:24 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NO3-</t>
-  </si>
-  <si>
-    <t>NO3- is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:54:04 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:54:53 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:55:24 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>NO3- is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:55:27 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:55:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:56:14 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:56:40 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:56:57 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 17:57:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 18:32:30 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 18:35:10 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 18:36:46 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>COD is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:10 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>Temperature is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:19 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:25 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:35 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Total N is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:44 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:10:52 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:11:27 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:14:40 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>Temperature is out of HIGHHIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:14:54 GMT+0700 (Indochina Time)</t>
-  </si>
-  <si>
-    <t>TSS is out of HIGHHIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 19:15:06 GMT+0700 (Indochina Time)</t>
+    <t>Sat May 28 2022 10:45:46 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:47:11 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:47:19 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:48:08 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>COD is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:48:29 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:49:39 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Temperature is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:51:23 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:54:53 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:55:24 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:55:43 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:56:40 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 10:56:56 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:04:53 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:33:38 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:33:43 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:34:02 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:34:07 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:35:10 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 11:36:45 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Pt-Co</t>
+  </si>
+  <si>
+    <t>Color is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:08:55 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:10:34 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Nito is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:10:43 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:10:50 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:10:51 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:11:08 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:11:27 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sat May 28 2022 12:14:30 GMT+0000 (Coordinated Universal Time)</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -402,7 +408,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>18</v>
@@ -414,7 +420,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>36.98</v>
+        <v>31.98</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -426,16 +432,16 @@
         <v>22</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M3" s="0" t="n">
         <v>3</v>
@@ -455,7 +461,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -464,40 +470,40 @@
         <v>19</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>36.75</v>
+        <v>5.52</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>108006</v>
+        <v>90003</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>24</v>
@@ -508,7 +514,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
@@ -517,10 +523,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>27.73</v>
+        <v>31.75</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>21</v>
@@ -529,28 +535,28 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="M5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>74005</v>
+        <v>108005</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>24</v>
@@ -561,7 +567,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
@@ -570,40 +576,40 @@
         <v>19</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>129.68</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="I6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>170</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="O6" s="0" t="n">
-        <v>161509</v>
+        <v>29002</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>24</v>
@@ -614,7 +620,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
@@ -623,40 +629,40 @@
         <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>24.84</v>
+        <v>27.73</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="M7" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>44003</v>
+        <v>74003</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>24</v>
@@ -667,7 +673,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
@@ -676,40 +682,40 @@
         <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>69.86</v>
+        <v>129.68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>544032</v>
+        <v>161509</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>24</v>
@@ -720,7 +726,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
@@ -729,40 +735,40 @@
         <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>73.01</v>
+        <v>19.84</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>10501</v>
+        <v>44002</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>24</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>18</v>
@@ -782,19 +788,19 @@
         <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>69.74</v>
+        <v>69.86</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>70</v>
@@ -812,10 +818,10 @@
         <v>3</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>42502</v>
+        <v>544030</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>24</v>
@@ -826,49 +832,49 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>73.01</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="N11" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>70504</v>
+        <v>10501</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>24</v>
@@ -879,7 +885,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
@@ -888,19 +894,19 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>73.01</v>
+        <v>69.74</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>70</v>
@@ -918,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>18001</v>
+        <v>42502</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>24</v>
@@ -932,7 +938,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>18</v>
@@ -941,40 +947,40 @@
         <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>69.84</v>
+        <v>14.89</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>110</v>
-      </c>
       <c r="K13" s="0" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>168510</v>
+        <v>70505</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>24</v>
@@ -985,7 +991,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -994,40 +1000,40 @@
         <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>58.09</v>
+        <v>73.01</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>964559</v>
+        <v>18001</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>24</v>
@@ -1038,7 +1044,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>18</v>
@@ -1047,40 +1053,40 @@
         <v>19</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>60.14</v>
+        <v>7.22</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>14500</v>
+        <v>767045</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>24</v>
@@ -1091,49 +1097,49 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>983059</v>
+        <v>168510</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>24</v>
@@ -1144,7 +1150,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>18</v>
@@ -1156,22 +1162,22 @@
         <v>49</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>10.01</v>
+        <v>4.7</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>10</v>
@@ -1180,13 +1186,13 @@
         <v>20</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>500</v>
+        <v>27501</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>24</v>
@@ -1197,7 +1203,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
@@ -1206,40 +1212,40 @@
         <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>7.92</v>
+        <v>5.52</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>20</v>
-      </c>
       <c r="M18" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>9500</v>
+        <v>683041</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>24</v>
@@ -1250,7 +1256,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>18</v>
@@ -1259,40 +1265,40 @@
         <v>19</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>63.22</v>
+        <v>7.05</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>96505</v>
+        <v>21001</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>24</v>
@@ -1303,7 +1309,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>18</v>
@@ -1315,22 +1321,22 @@
         <v>49</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>9.12</v>
+        <v>4.77</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>10</v>
@@ -1339,13 +1345,13 @@
         <v>20</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>51004</v>
+        <v>96505</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>24</v>
@@ -1356,7 +1362,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>18</v>
@@ -1365,19 +1371,19 @@
         <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>63.42</v>
+        <v>58.09</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>55</v>
@@ -1386,7 +1392,7 @@
         <v>95</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>85</v>
@@ -1395,10 +1401,10 @@
         <v>3</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>29502</v>
+        <v>964556</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>24</v>
@@ -1409,7 +1415,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>18</v>
@@ -1421,22 +1427,22 @@
         <v>49</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>7.93</v>
+        <v>7.05</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>10</v>
@@ -1445,13 +1451,13 @@
         <v>20</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>24001</v>
+        <v>58504</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>24</v>
@@ -1462,7 +1468,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>18</v>
@@ -1471,40 +1477,40 @@
         <v>19</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>63.08</v>
+        <v>10.01</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>57003</v>
+        <v>11000</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>24</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>18</v>
@@ -1524,40 +1530,40 @@
         <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>63.14</v>
+        <v>159.91</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>41002</v>
+        <v>518031</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>24</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>18</v>
@@ -1577,40 +1583,40 @@
         <v>19</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>28.36</v>
+        <v>4.8</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>1196573</v>
+        <v>93006</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>24</v>
@@ -1621,7 +1627,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>18</v>
@@ -1630,40 +1636,40 @@
         <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>149.77</v>
+        <v>7.26</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>979561</v>
+        <v>7000</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>24</v>
@@ -1674,7 +1680,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>18</v>
@@ -1683,40 +1689,40 @@
         <v>19</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>24.93</v>
+        <v>4.91</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>209013</v>
+        <v>49003</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>24</v>
@@ -1727,7 +1733,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>18</v>
@@ -1736,19 +1742,19 @@
         <v>19</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>54.79</v>
+        <v>65.09</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>55</v>
@@ -1757,7 +1763,7 @@
         <v>95</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L28" s="0" t="n">
         <v>85</v>
@@ -1766,10 +1772,10 @@
         <v>3</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>117007</v>
+        <v>262517</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>24</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>18</v>
@@ -1789,40 +1795,40 @@
         <v>19</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>155.02</v>
+        <v>4.99</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>165</v>
+        <v>6</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>82504</v>
+        <v>493030</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>24</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>18</v>
@@ -1845,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>28.06</v>
+        <v>23.36</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>21</v>
@@ -1854,28 +1860,28 @@
         <v>2</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>50003</v>
+        <v>1196573</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>24</v>
@@ -1886,7 +1892,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>18</v>
@@ -1895,10 +1901,10 @@
         <v>19</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>149.91</v>
+        <v>19.93</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>21</v>
@@ -1907,28 +1913,28 @@
         <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>46505</v>
+        <v>209012</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>24</v>
@@ -1939,7 +1945,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>18</v>
@@ -1948,40 +1954,40 @@
         <v>19</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>24.89</v>
+        <v>54.79</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>56003</v>
+        <v>413025</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>24</v>
@@ -1992,7 +1998,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>18</v>
@@ -2004,7 +2010,7 @@
         <v>20</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>28.37</v>
+        <v>23.06</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>21</v>
@@ -2013,28 +2019,28 @@
         <v>2</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>16001</v>
+        <v>50003</v>
       </c>
       <c r="Q33" s="0" t="s">
         <v>24</v>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>18</v>
@@ -2054,40 +2060,40 @@
         <v>19</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>155.27</v>
+        <v>19.89</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>89504</v>
+        <v>56004</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>24</v>
@@ -2098,7 +2104,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>18</v>
@@ -2107,40 +2113,40 @@
         <v>19</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>149.98</v>
+        <v>23.37</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>1000</v>
+        <v>16001</v>
       </c>
       <c r="Q35" s="0" t="s">
         <v>24</v>
@@ -2151,7 +2157,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>18</v>
@@ -2160,40 +2166,40 @@
         <v>19</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>28.2</v>
+        <v>4.82</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O36" s="0" t="n">
-        <v>161510</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="0" t="s">
         <v>24</v>
@@ -2204,7 +2210,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>18</v>
@@ -2213,40 +2219,40 @@
         <v>19</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>24.73</v>
+        <v>7.04</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>95006</v>
+        <v>69503</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>24</v>
@@ -2257,7 +2263,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>18</v>
@@ -2266,40 +2272,40 @@
         <v>19</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>50.07</v>
+        <v>4.91</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O38" s="0" t="n">
-        <v>74504</v>
+        <v>5001</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>24</v>
@@ -2310,7 +2316,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>18</v>
@@ -2319,40 +2325,40 @@
         <v>19</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>21.96</v>
+        <v>7.25</v>
       </c>
       <c r="F39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" s="0" t="s">
-        <v>84</v>
-      </c>
       <c r="O39" s="0" t="n">
-        <v>78005</v>
+        <v>18001</v>
       </c>
       <c r="Q39" s="0" t="s">
         <v>24</v>
@@ -2363,7 +2369,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>18</v>
@@ -2375,22 +2381,22 @@
         <v>49</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>7.65</v>
+        <v>4.83</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>10</v>
@@ -2399,13 +2405,13 @@
         <v>20</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>3503</v>
+        <v>4501</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>24</v>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>18</v>
@@ -2425,40 +2431,40 @@
         <v>19</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>14.69</v>
+        <v>23.2</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" s="0" t="n">
+      <c r="K41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L41" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K41" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="M41" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>90507</v>
+        <v>161509</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>24</v>
@@ -2469,7 +2475,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>18</v>
@@ -2478,40 +2484,40 @@
         <v>19</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>17.36</v>
+        <v>19.73</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J42" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L42" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="K42" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>30</v>
-      </c>
       <c r="M42" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>8500</v>
+        <v>95010</v>
       </c>
       <c r="Q42" s="0" t="s">
         <v>24</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>18</v>
@@ -2531,40 +2537,40 @@
         <v>19</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>14.52</v>
+        <v>15.15</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>35</v>
-      </c>
       <c r="K43" s="0" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>89</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>7500</v>
+        <v>15497</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>24</v>
@@ -2575,7 +2581,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>18</v>
@@ -2584,40 +2590,40 @@
         <v>19</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>45.22</v>
+        <v>14.69</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K44" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L44" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="L44" s="0" t="n">
-        <v>40</v>
-      </c>
       <c r="M44" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>90</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>86005</v>
+        <v>90505</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>24</v>
@@ -2628,7 +2634,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>18</v>
@@ -2637,40 +2643,40 @@
         <v>19</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>30.48</v>
+        <v>17.36</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J45" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L45" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K45" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="L45" s="0" t="n">
-        <v>25</v>
-      </c>
       <c r="M45" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O45" s="0" t="n">
-        <v>9999</v>
+        <v>8501</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>24</v>
@@ -2681,7 +2687,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>18</v>
@@ -2690,40 +2696,40 @@
         <v>19</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>26.95</v>
+        <v>4.85</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="I46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K46" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K46" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L46" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>93</v>
       </c>
       <c r="O46" s="0" t="n">
-        <v>13998</v>
+        <v>29002</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>24</v>
@@ -2734,54 +2740,213 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <v>18001</v>
+      </c>
+      <c r="Q48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>40.22</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="M49" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>41.67</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="K47" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="L47" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="M47" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <v>36501</v>
-      </c>
-      <c r="Q47" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R47" s="0" t="n">
+      <c r="N49" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <v>86005</v>
+      </c>
+      <c r="Q49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="R50" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/server/report.xlsx
+++ b/server/report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>OS_Type</t>
   </si>
@@ -67,10 +67,82 @@
     <t>ACKTime</t>
   </si>
   <si>
-    <t>KCN VSIP</t>
-  </si>
-  <si>
-    <t>Tram 5</t>
+    <t>KCN Long Thanh</t>
+  </si>
+  <si>
+    <t>Tram 1</t>
+  </si>
+  <si>
+    <t>Hg</t>
+  </si>
+  <si>
+    <t>mg/m3</t>
+  </si>
+  <si>
+    <t>Hg is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:15:53 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hg is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:15:55 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NH3 is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:15:56 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:15:57 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>NO2 is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:15:59 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NH3 is out of LOWLOW limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:00 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NO2 is out of HIGHHIGH limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:01 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NO is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:15 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NO is out of HIGHHIGH limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:21 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:25 GMT+0000 (Coordinated Universal Time)</t>
   </si>
   <si>
     <t>Temperature</t>
@@ -79,82 +151,64 @@
     <t>°C</t>
   </si>
   <si>
+    <t>Temperature is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:39 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:42 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:16:52 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:17:03 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Truong Dinh Chau</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:17:19 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:17:26 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:17:40 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>NO2 is out of LOW limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:17:44 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:17:47 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:22 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:24 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
     <t>Temperature is out of LOW limit</t>
   </si>
   <si>
-    <t>Sat May 28 2022 10:30:34 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Temperature is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:31:45 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:32:53 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Temperature is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:35:08 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Temperature is out of HIGHHIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:37:04 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:39:29 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>ppb</t>
-  </si>
-  <si>
-    <t>O3 is out of HIGH limit</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:39:49 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:40:13 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:41:30 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:43:18 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:46:34 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:48:39 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:49:25 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:52:25 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:54:07 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:54:32 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:55:56 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sat May 28 2022 10:57:12 GMT+0000 (Coordinated Universal Time)</t>
+    <t>Sun May 29 2022 13:18:33 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:44 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:48 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:50 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:54 GMT+0000 (Coordinated Universal Time)</t>
   </si>
   <si>
     <t>SO2</t>
@@ -163,70 +217,19 @@
     <t>SO2 is out of LOW limit</t>
   </si>
   <si>
-    <t>Sat May 28 2022 12:13:43 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:29:11 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:29:39 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>SO2 is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:29:49 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:30:18 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>CO is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:33:21 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:33:26 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>CO is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:33:45 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:33:59 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:34:11 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:34:13 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:34:18 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>PM2.5</t>
-  </si>
-  <si>
-    <t>ug/Nm3</t>
-  </si>
-  <si>
-    <t>PM2.5 is out of LOW limit</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:34:33 GMT+0000 (Coordinated Universal Time)</t>
-  </si>
-  <si>
-    <t>PM2.5 is out of LOWLOW limit</t>
-  </si>
-  <si>
-    <t>Sun May 29 2022 07:34:46 GMT+0000 (Coordinated Universal Time)</t>
+    <t>Sun May 29 2022 13:18:55 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>PM is out of HIGH limit</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:56 GMT+0000 (Coordinated Universal Time)</t>
+  </si>
+  <si>
+    <t>Sun May 29 2022 13:18:57 GMT+0000 (Coordinated Universal Time)</t>
   </si>
 </sst>
 </file>
@@ -266,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -330,7 +333,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>18</v>
@@ -342,7 +345,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>9.99</v>
+        <v>9.69</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -366,13 +369,13 @@
         <v>25</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>23</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>152509</v>
+        <v>18103</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>24</v>
@@ -383,7 +386,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -395,7 +398,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>13.02</v>
+        <v>12.36</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>21</v>
@@ -419,13 +422,13 @@
         <v>25</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>70005</v>
+        <v>1700</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>24</v>
@@ -436,7 +439,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>18</v>
@@ -445,10 +448,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>18.21</v>
+        <v>4.85</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>21</v>
@@ -457,28 +460,28 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L5" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>68005</v>
+        <v>5801</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>24</v>
@@ -489,7 +492,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>18</v>
@@ -501,7 +504,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>30.14</v>
+        <v>9.52</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>21</v>
@@ -510,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
@@ -525,13 +528,13 @@
         <v>25</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>97507</v>
+        <v>1501</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>24</v>
@@ -542,7 +545,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>18</v>
@@ -551,40 +554,40 @@
         <v>19</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>26.98</v>
+        <v>55.19</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="K7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L7" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>115506</v>
+        <v>10100</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>24</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>18</v>
@@ -604,40 +607,40 @@
         <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>21.76</v>
+        <v>7.17</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J8" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L8" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>145012</v>
+        <v>3600</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>24</v>
@@ -648,7 +651,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>18</v>
@@ -657,40 +660,40 @@
         <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>649.85</v>
+        <v>51.99</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>590</v>
+        <v>25</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>690</v>
+        <v>55</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>610</v>
+        <v>30</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>670</v>
+        <v>50</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>707542</v>
+        <v>2300</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>24</v>
@@ -701,7 +704,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>18</v>
@@ -710,10 +713,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>21.76</v>
+        <v>50.09</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>21</v>
@@ -722,28 +725,28 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>29002</v>
+        <v>10701</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>24</v>
@@ -754,7 +757,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>18</v>
@@ -763,40 +766,40 @@
         <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>21.95</v>
+        <v>46.96</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>61503</v>
+        <v>6600</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>24</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
@@ -816,10 +819,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>18.3</v>
+        <v>4.87</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>21</v>
@@ -828,28 +831,28 @@
         <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L12" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>35502</v>
+        <v>25201</v>
       </c>
       <c r="Q12" s="0" t="s">
         <v>24</v>
@@ -860,7 +863,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>18</v>
@@ -869,40 +872,40 @@
         <v>19</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>18.18</v>
+        <v>86.92</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>58505</v>
+        <v>4400</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>24</v>
@@ -913,7 +916,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>18</v>
@@ -922,10 +925,10 @@
         <v>19</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>18.18</v>
+        <v>41.83</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>21</v>
@@ -934,28 +937,28 @@
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>91506</v>
+        <v>21000</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>24</v>
@@ -966,7 +969,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>18</v>
@@ -975,10 +978,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>18.32</v>
+        <v>46.86</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>21</v>
@@ -987,28 +990,28 @@
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J15" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="K15" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L15" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>14000</v>
+        <v>51103</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>24</v>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>18</v>
@@ -1031,16 +1034,16 @@
         <v>20</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>18.06</v>
+        <v>12.2</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>10</v>
@@ -1055,13 +1058,13 @@
         <v>25</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>7999</v>
+        <v>66004</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>24</v>
@@ -1072,7 +1075,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>18</v>
@@ -1081,51 +1084,51 @@
         <v>19</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>9.68</v>
+        <v>3.6600000858306885</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L17" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>41503</v>
+        <v>25201</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>18</v>
@@ -1137,16 +1140,16 @@
         <v>20</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>13.29</v>
+        <v>15.1899995803833</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>10</v>
@@ -1161,24 +1164,24 @@
         <v>25</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>24001</v>
+        <v>66004</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>18</v>
@@ -1190,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>9.8</v>
+        <v>17.08</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>21</v>
@@ -1214,13 +1217,13 @@
         <v>25</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>83505</v>
+        <v>37315</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>24</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>18</v>
@@ -1240,40 +1243,40 @@
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>13.38</v>
+        <v>33.24</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J20" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="K20" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L20" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>75004</v>
+        <v>4799</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>24</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>18</v>
@@ -1293,40 +1296,40 @@
         <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>29.61</v>
+        <v>17.21</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J21" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="K21" s="0" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>9500</v>
+        <v>2100</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>24</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>18</v>
@@ -1346,40 +1349,40 @@
         <v>19</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>29.99</v>
+        <v>9.76</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="K22" s="0" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>4001</v>
+        <v>16601</v>
       </c>
       <c r="Q22" s="0" t="s">
         <v>24</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>18</v>
@@ -1402,16 +1405,16 @@
         <v>20</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>18.05</v>
+        <v>12.08</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>10</v>
@@ -1426,13 +1429,13 @@
         <v>25</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>32002</v>
+        <v>1800</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>24</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>18</v>
@@ -1452,40 +1455,40 @@
         <v>19</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>33.25</v>
+        <v>59.59</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>37002</v>
+        <v>29805</v>
       </c>
       <c r="Q24" s="0" t="s">
         <v>24</v>
@@ -1496,7 +1499,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>18</v>
@@ -1505,40 +1508,40 @@
         <v>19</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>29.99</v>
+        <v>7.04</v>
       </c>
       <c r="F25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="I25" s="0" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>28998</v>
+        <v>138608</v>
       </c>
       <c r="Q25" s="0" t="s">
         <v>24</v>
@@ -1549,7 +1552,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>18</v>
@@ -1558,40 +1561,40 @@
         <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>24.8</v>
+        <v>9.84</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>2399</v>
+        <v>23201</v>
       </c>
       <c r="Q26" s="0" t="s">
         <v>24</v>
@@ -1602,7 +1605,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>18</v>
@@ -1614,16 +1617,16 @@
         <v>20</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>30.22</v>
+        <v>12.05</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>10</v>
@@ -1638,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>5501</v>
+        <v>2000</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>24</v>
@@ -1655,7 +1658,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>18</v>
@@ -1664,40 +1667,40 @@
         <v>19</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>28.24</v>
+        <v>4.78</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>24501</v>
+        <v>5801</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>24</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>18</v>
@@ -1717,40 +1720,40 @@
         <v>19</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>29.79</v>
+        <v>9.8</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="K29" s="0" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>38702</v>
+        <v>3698</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>24</v>
@@ -1761,7 +1764,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>18</v>
@@ -1770,40 +1773,40 @@
         <v>19</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>24.84</v>
+        <v>170.03</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>25702</v>
+        <v>8700</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>24</v>
@@ -1814,7 +1817,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>18</v>
@@ -1823,40 +1826,40 @@
         <v>19</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>26.91</v>
+        <v>156.74</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>46702</v>
+        <v>44803</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>24</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>18</v>
@@ -1876,151 +1879,45 @@
         <v>19</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>30</v>
+        <v>7.12</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K32" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="L32" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>5100</v>
+        <v>7400</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>24</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>5000</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>58.18</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>55</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>95</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>13101</v>
-      </c>
-      <c r="Q34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
